--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/5/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/5/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.150013</v>
       </c>
       <c r="B7" t="n">
-        <v>5.45308</v>
+        <v>5.22528</v>
       </c>
       <c r="C7" t="n">
-        <v>5453.08</v>
+        <v>5225.28</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.179965</v>
       </c>
       <c r="B8" t="n">
-        <v>6.45377</v>
+        <v>5.62784</v>
       </c>
       <c r="C8" t="n">
-        <v>6453.77</v>
+        <v>5627.84</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.209917</v>
       </c>
       <c r="B9" t="n">
-        <v>7.42919</v>
+        <v>6.05991</v>
       </c>
       <c r="C9" t="n">
-        <v>7429.19</v>
+        <v>6059.91</v>
       </c>
     </row>
     <row r="10">
@@ -543,1022 +543,1022 @@
         <v>0.23987</v>
       </c>
       <c r="B10" t="n">
-        <v>7.890270000000001</v>
+        <v>6.3369</v>
       </c>
       <c r="C10" t="n">
-        <v>7890.27</v>
+        <v>6336.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.269786</v>
+        <v>0.26981</v>
       </c>
       <c r="B11" t="n">
-        <v>8.36378</v>
+        <v>6.55937</v>
       </c>
       <c r="C11" t="n">
-        <v>8363.780000000001</v>
+        <v>6559.37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.299687</v>
+        <v>0.299711</v>
       </c>
       <c r="B12" t="n">
-        <v>8.678459999999999</v>
+        <v>6.72691</v>
       </c>
       <c r="C12" t="n">
-        <v>8678.459999999999</v>
+        <v>6726.91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.329584</v>
+        <v>0.329607</v>
       </c>
       <c r="B13" t="n">
-        <v>8.92694</v>
+        <v>6.87276</v>
       </c>
       <c r="C13" t="n">
-        <v>8926.940000000001</v>
+        <v>6872.76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.359485</v>
+        <v>0.359508</v>
       </c>
       <c r="B14" t="n">
-        <v>9.16832</v>
+        <v>6.98584</v>
       </c>
       <c r="C14" t="n">
-        <v>9168.32</v>
+        <v>6985.84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.389386</v>
+        <v>0.389409</v>
       </c>
       <c r="B15" t="n">
-        <v>9.3223</v>
+        <v>7.08437</v>
       </c>
       <c r="C15" t="n">
-        <v>9322.299999999999</v>
+        <v>7084.37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.419287</v>
+        <v>0.41931</v>
       </c>
       <c r="B16" t="n">
-        <v>9.49193</v>
+        <v>7.180020000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>9491.93</v>
+        <v>7180.02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.449188</v>
+        <v>0.449211</v>
       </c>
       <c r="B17" t="n">
-        <v>9.621700000000001</v>
+        <v>7.25761</v>
       </c>
       <c r="C17" t="n">
-        <v>9621.700000000001</v>
+        <v>7257.61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.479089</v>
+        <v>0.479112</v>
       </c>
       <c r="B18" t="n">
-        <v>9.736600000000001</v>
+        <v>7.33145</v>
       </c>
       <c r="C18" t="n">
-        <v>9736.6</v>
+        <v>7331.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5089900000000001</v>
+        <v>0.509013</v>
       </c>
       <c r="B19" t="n">
-        <v>9.84083</v>
+        <v>7.390000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>9840.83</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.538891</v>
+        <v>0.538914</v>
       </c>
       <c r="B20" t="n">
-        <v>9.926309999999999</v>
+        <v>7.45126</v>
       </c>
       <c r="C20" t="n">
-        <v>9926.309999999999</v>
+        <v>7451.26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.568792</v>
+        <v>0.568816</v>
       </c>
       <c r="B21" t="n">
-        <v>10.0081</v>
+        <v>7.50785</v>
       </c>
       <c r="C21" t="n">
-        <v>10008.1</v>
+        <v>7507.85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5988059999999999</v>
+        <v>0.59883</v>
       </c>
       <c r="B22" t="n">
-        <v>10.0926</v>
+        <v>7.55733</v>
       </c>
       <c r="C22" t="n">
-        <v>10092.6</v>
+        <v>7557.33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.628946</v>
+        <v>0.62897</v>
       </c>
       <c r="B23" t="n">
-        <v>10.1563</v>
+        <v>7.60246</v>
       </c>
       <c r="C23" t="n">
-        <v>10156.3</v>
+        <v>7602.46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.659091</v>
+        <v>0.659115</v>
       </c>
       <c r="B24" t="n">
-        <v>10.2252</v>
+        <v>7.64457</v>
       </c>
       <c r="C24" t="n">
-        <v>10225.2</v>
+        <v>7644.57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.689231</v>
+        <v>0.689255</v>
       </c>
       <c r="B25" t="n">
-        <v>10.2836</v>
+        <v>7.68313</v>
       </c>
       <c r="C25" t="n">
-        <v>10283.6</v>
+        <v>7683.13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.719372</v>
+        <v>0.719395</v>
       </c>
       <c r="B26" t="n">
-        <v>10.3362</v>
+        <v>7.71824</v>
       </c>
       <c r="C26" t="n">
-        <v>10336.2</v>
+        <v>7718.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.749516</v>
+        <v>0.74954</v>
       </c>
       <c r="B27" t="n">
-        <v>10.388</v>
+        <v>7.75048</v>
       </c>
       <c r="C27" t="n">
-        <v>10388</v>
+        <v>7750.48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.779657</v>
+        <v>0.77968</v>
       </c>
       <c r="B28" t="n">
-        <v>10.4377</v>
+        <v>7.78144</v>
       </c>
       <c r="C28" t="n">
-        <v>10437.7</v>
+        <v>7781.44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.809801</v>
+        <v>0.809825</v>
       </c>
       <c r="B29" t="n">
-        <v>10.481</v>
+        <v>7.81191</v>
       </c>
       <c r="C29" t="n">
-        <v>10481</v>
+        <v>7811.91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.839942</v>
+        <v>0.839965</v>
       </c>
       <c r="B30" t="n">
-        <v>10.5219</v>
+        <v>7.839270000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>10521.9</v>
+        <v>7839.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.870082</v>
+        <v>0.870106</v>
       </c>
       <c r="B31" t="n">
-        <v>10.5598</v>
+        <v>7.86323</v>
       </c>
       <c r="C31" t="n">
-        <v>10559.8</v>
+        <v>7863.23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.900227</v>
+        <v>0.90025</v>
       </c>
       <c r="B32" t="n">
-        <v>10.5946</v>
+        <v>7.88755</v>
       </c>
       <c r="C32" t="n">
-        <v>10594.6</v>
+        <v>7887.55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9303670000000001</v>
+        <v>0.930391</v>
       </c>
       <c r="B33" t="n">
-        <v>10.627</v>
+        <v>7.90944</v>
       </c>
       <c r="C33" t="n">
-        <v>10627</v>
+        <v>7909.44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.960507</v>
+        <v>0.960531</v>
       </c>
       <c r="B34" t="n">
-        <v>10.6569</v>
+        <v>7.9295</v>
       </c>
       <c r="C34" t="n">
-        <v>10656.9</v>
+        <v>7929.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.990652</v>
+        <v>0.990676</v>
       </c>
       <c r="B35" t="n">
-        <v>10.6846</v>
+        <v>7.94916</v>
       </c>
       <c r="C35" t="n">
-        <v>10684.6</v>
+        <v>7949.16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.02079</v>
+        <v>1.02082</v>
       </c>
       <c r="B36" t="n">
-        <v>10.7111</v>
+        <v>7.9663</v>
       </c>
       <c r="C36" t="n">
-        <v>10711.1</v>
+        <v>7966.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.05093</v>
+        <v>1.05096</v>
       </c>
       <c r="B37" t="n">
-        <v>10.7367</v>
+        <v>7.98337</v>
       </c>
       <c r="C37" t="n">
-        <v>10736.7</v>
+        <v>7983.37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.08108</v>
+        <v>1.0811</v>
       </c>
       <c r="B38" t="n">
-        <v>10.76</v>
+        <v>7.998220000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>10760</v>
+        <v>7998.22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.11122</v>
+        <v>1.11124</v>
       </c>
       <c r="B39" t="n">
-        <v>10.7803</v>
+        <v>8.01258</v>
       </c>
       <c r="C39" t="n">
-        <v>10780.3</v>
+        <v>8012.58</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.14136</v>
+        <v>1.14139</v>
       </c>
       <c r="B40" t="n">
-        <v>10.8</v>
+        <v>8.025790000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>10800</v>
+        <v>8025.79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.1715</v>
+        <v>1.17153</v>
       </c>
       <c r="B41" t="n">
-        <v>10.8188</v>
+        <v>8.037520000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>10818.8</v>
+        <v>8037.52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.20164</v>
+        <v>1.20167</v>
       </c>
       <c r="B42" t="n">
-        <v>10.8349</v>
+        <v>8.048870000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>10834.9</v>
+        <v>8048.87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.23179</v>
+        <v>1.23181</v>
       </c>
       <c r="B43" t="n">
-        <v>10.8506</v>
+        <v>8.058870000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>10850.6</v>
+        <v>8058.87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.26193</v>
+        <v>1.26195</v>
       </c>
       <c r="B44" t="n">
-        <v>10.8645</v>
+        <v>8.06795</v>
       </c>
       <c r="C44" t="n">
-        <v>10864.5</v>
+        <v>8067.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.29207</v>
+        <v>1.29209</v>
       </c>
       <c r="B45" t="n">
-        <v>10.8771</v>
+        <v>8.076409999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>10877.1</v>
+        <v>8076.41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.32221</v>
+        <v>1.32224</v>
       </c>
       <c r="B46" t="n">
-        <v>10.8887</v>
+        <v>8.08376</v>
       </c>
       <c r="C46" t="n">
-        <v>10888.7</v>
+        <v>8083.76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.35235</v>
+        <v>1.35228</v>
       </c>
       <c r="B47" t="n">
-        <v>10.8988</v>
+        <v>8.090160000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>10898.8</v>
+        <v>8090.16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.38249</v>
+        <v>1.38201</v>
       </c>
       <c r="B48" t="n">
-        <v>10.9078</v>
+        <v>8.095840000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>10907.8</v>
+        <v>8095.84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.41225</v>
+        <v>1.41174</v>
       </c>
       <c r="B49" t="n">
-        <v>10.9158</v>
+        <v>8.10075</v>
       </c>
       <c r="C49" t="n">
-        <v>10915.8</v>
+        <v>8100.75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.44198</v>
+        <v>1.44147</v>
       </c>
       <c r="B50" t="n">
-        <v>10.9223</v>
+        <v>8.10477</v>
       </c>
       <c r="C50" t="n">
-        <v>10922.3</v>
+        <v>8104.77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.47171</v>
+        <v>1.4712</v>
       </c>
       <c r="B51" t="n">
-        <v>10.928</v>
+        <v>8.107939999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>10928</v>
+        <v>8107.94</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.50144</v>
+        <v>1.50093</v>
       </c>
       <c r="B52" t="n">
-        <v>10.9324</v>
+        <v>8.11035</v>
       </c>
       <c r="C52" t="n">
-        <v>10932.4</v>
+        <v>8110.35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.53116</v>
+        <v>1.53085</v>
       </c>
       <c r="B53" t="n">
-        <v>10.9359</v>
+        <v>8.11201</v>
       </c>
       <c r="C53" t="n">
-        <v>10935.9</v>
+        <v>8112.01</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.56095</v>
+        <v>1.56114</v>
       </c>
       <c r="B54" t="n">
-        <v>10.9383</v>
+        <v>8.1129</v>
       </c>
       <c r="C54" t="n">
-        <v>10938.3</v>
+        <v>8112.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.59124</v>
+        <v>1.59144</v>
       </c>
       <c r="B55" t="n">
-        <v>10.9394</v>
+        <v>8.11286</v>
       </c>
       <c r="C55" t="n">
-        <v>10939.4</v>
+        <v>8112.86</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.62154</v>
+        <v>1.62173</v>
       </c>
       <c r="B56" t="n">
-        <v>10.9395</v>
+        <v>8.11185</v>
       </c>
       <c r="C56" t="n">
-        <v>10939.5</v>
+        <v>8111.85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.65183</v>
+        <v>1.65202</v>
       </c>
       <c r="B57" t="n">
-        <v>10.9382</v>
+        <v>8.11004</v>
       </c>
       <c r="C57" t="n">
-        <v>10938.2</v>
+        <v>8110.04</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.68212</v>
+        <v>1.68232</v>
       </c>
       <c r="B58" t="n">
-        <v>10.9358</v>
+        <v>8.107390000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>10935.8</v>
+        <v>8107.39</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.71242</v>
+        <v>1.71261</v>
       </c>
       <c r="B59" t="n">
-        <v>10.9323</v>
+        <v>8.10393</v>
       </c>
       <c r="C59" t="n">
-        <v>10932.3</v>
+        <v>8103.93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.74271</v>
+        <v>1.7429</v>
       </c>
       <c r="B60" t="n">
-        <v>10.9276</v>
+        <v>8.09966</v>
       </c>
       <c r="C60" t="n">
-        <v>10927.6</v>
+        <v>8099.66</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.773</v>
+        <v>1.7732</v>
       </c>
       <c r="B61" t="n">
-        <v>10.9217</v>
+        <v>8.094520000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>10921.7</v>
+        <v>8094.52</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.8033</v>
+        <v>1.80349</v>
       </c>
       <c r="B62" t="n">
-        <v>10.9147</v>
+        <v>8.088570000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>10914.7</v>
+        <v>8088.57</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.83359</v>
+        <v>1.83378</v>
       </c>
       <c r="B63" t="n">
-        <v>10.9066</v>
+        <v>8.081720000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>10906.6</v>
+        <v>8081.72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.86388</v>
+        <v>1.86408</v>
       </c>
       <c r="B64" t="n">
-        <v>10.8972</v>
+        <v>8.074070000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>10897.2</v>
+        <v>8074.07</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.89418</v>
+        <v>1.89437</v>
       </c>
       <c r="B65" t="n">
-        <v>10.8868</v>
+        <v>8.065560000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>10886.8</v>
+        <v>8065.56</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.92447</v>
+        <v>1.92466</v>
       </c>
       <c r="B66" t="n">
-        <v>10.875</v>
+        <v>8.056180000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>10875</v>
+        <v>8056.18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.95476</v>
+        <v>1.95454</v>
       </c>
       <c r="B67" t="n">
-        <v>10.862</v>
+        <v>8.04575</v>
       </c>
       <c r="C67" t="n">
-        <v>10862</v>
+        <v>8045.75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.98479</v>
+        <v>1.98441</v>
       </c>
       <c r="B68" t="n">
-        <v>10.847</v>
+        <v>8.033939999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>10847</v>
+        <v>8033.94</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.01466</v>
+        <v>2.01428</v>
       </c>
       <c r="B69" t="n">
-        <v>10.8306</v>
+        <v>8.02115</v>
       </c>
       <c r="C69" t="n">
-        <v>10830.6</v>
+        <v>8021.15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.04453</v>
+        <v>2.04414</v>
       </c>
       <c r="B70" t="n">
-        <v>10.813</v>
+        <v>8.00747</v>
       </c>
       <c r="C70" t="n">
-        <v>10813</v>
+        <v>8007.47</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.07439</v>
+        <v>2.07401</v>
       </c>
       <c r="B71" t="n">
-        <v>10.7942</v>
+        <v>7.9928</v>
       </c>
       <c r="C71" t="n">
-        <v>10794.2</v>
+        <v>7992.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.10426</v>
+        <v>2.10388</v>
       </c>
       <c r="B72" t="n">
-        <v>10.774</v>
+        <v>7.97716</v>
       </c>
       <c r="C72" t="n">
-        <v>10774</v>
+        <v>7977.16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.13413</v>
+        <v>2.13374</v>
       </c>
       <c r="B73" t="n">
-        <v>10.7522</v>
+        <v>7.960470000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>10752.2</v>
+        <v>7960.47</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.16399</v>
+        <v>2.16361</v>
       </c>
       <c r="B74" t="n">
-        <v>10.729</v>
+        <v>7.94265</v>
       </c>
       <c r="C74" t="n">
-        <v>10729</v>
+        <v>7942.65</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.19386</v>
+        <v>2.19348</v>
       </c>
       <c r="B75" t="n">
-        <v>10.7041</v>
+        <v>7.92367</v>
       </c>
       <c r="C75" t="n">
-        <v>10704.1</v>
+        <v>7923.67</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.22373</v>
+        <v>2.22334</v>
       </c>
       <c r="B76" t="n">
-        <v>10.6773</v>
+        <v>7.90336</v>
       </c>
       <c r="C76" t="n">
-        <v>10677.3</v>
+        <v>7903.36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.25359</v>
+        <v>2.25321</v>
       </c>
       <c r="B77" t="n">
-        <v>10.6483</v>
+        <v>7.881430000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>10648.3</v>
+        <v>7881.43</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.28346</v>
+        <v>2.28307</v>
       </c>
       <c r="B78" t="n">
-        <v>10.6173</v>
+        <v>7.858060000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>10617.3</v>
+        <v>7858.06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.31332</v>
+        <v>2.31294</v>
       </c>
       <c r="B79" t="n">
-        <v>10.5843</v>
+        <v>7.83317</v>
       </c>
       <c r="C79" t="n">
-        <v>10584.3</v>
+        <v>7833.17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.34319</v>
+        <v>2.34281</v>
       </c>
       <c r="B80" t="n">
-        <v>10.5491</v>
+        <v>7.80689</v>
       </c>
       <c r="C80" t="n">
-        <v>10549.1</v>
+        <v>7806.89</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.37306</v>
+        <v>2.37267</v>
       </c>
       <c r="B81" t="n">
-        <v>10.5119</v>
+        <v>7.77897</v>
       </c>
       <c r="C81" t="n">
-        <v>10511.9</v>
+        <v>7778.97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.40292</v>
+        <v>2.40254</v>
       </c>
       <c r="B82" t="n">
-        <v>10.4726</v>
+        <v>7.74945</v>
       </c>
       <c r="C82" t="n">
-        <v>10472.6</v>
+        <v>7749.45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.43279</v>
+        <v>2.43241</v>
       </c>
       <c r="B83" t="n">
-        <v>10.4306</v>
+        <v>7.71825</v>
       </c>
       <c r="C83" t="n">
-        <v>10430.6</v>
+        <v>7718.25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.46266</v>
+        <v>2.46228</v>
       </c>
       <c r="B84" t="n">
-        <v>10.3862</v>
+        <v>7.68528</v>
       </c>
       <c r="C84" t="n">
-        <v>10386.2</v>
+        <v>7685.28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.49252</v>
+        <v>2.49214</v>
       </c>
       <c r="B85" t="n">
-        <v>10.3391</v>
+        <v>7.65041</v>
       </c>
       <c r="C85" t="n">
-        <v>10339.1</v>
+        <v>7650.41</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.52239</v>
+        <v>2.52201</v>
       </c>
       <c r="B86" t="n">
-        <v>10.2895</v>
+        <v>7.61371</v>
       </c>
       <c r="C86" t="n">
-        <v>10289.5</v>
+        <v>7613.71</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.55226</v>
+        <v>2.55179</v>
       </c>
       <c r="B87" t="n">
-        <v>10.2374</v>
+        <v>7.57514</v>
       </c>
       <c r="C87" t="n">
-        <v>10237.4</v>
+        <v>7575.14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.58146</v>
+        <v>2.58099</v>
       </c>
       <c r="B88" t="n">
-        <v>10.1828</v>
+        <v>7.53478</v>
       </c>
       <c r="C88" t="n">
-        <v>10182.8</v>
+        <v>7534.78</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.61205</v>
+        <v>2.6118</v>
       </c>
       <c r="B89" t="n">
-        <v>10.123</v>
+        <v>7.490270000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>10123</v>
+        <v>7490.27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.64222</v>
+        <v>2.64197</v>
       </c>
       <c r="B90" t="n">
-        <v>10.0601</v>
+        <v>7.444220000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>10060.1</v>
+        <v>7444.22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.67204</v>
+        <v>2.67159</v>
       </c>
       <c r="B91" t="n">
-        <v>9.994809999999999</v>
+        <v>7.396560000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>9994.809999999999</v>
+        <v>7396.56</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.70143</v>
+        <v>2.70117</v>
       </c>
       <c r="B92" t="n">
-        <v>9.927070000000001</v>
+        <v>7.34689</v>
       </c>
       <c r="C92" t="n">
-        <v>9927.07</v>
+        <v>7346.89</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.73211</v>
+        <v>2.73175</v>
       </c>
       <c r="B93" t="n">
-        <v>9.852270000000001</v>
+        <v>7.292470000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>9852.27</v>
+        <v>7292.47</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.76216</v>
+        <v>2.76172</v>
       </c>
       <c r="B94" t="n">
-        <v>9.775350000000001</v>
+        <v>7.23661</v>
       </c>
       <c r="C94" t="n">
-        <v>9775.35</v>
+        <v>7236.61</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.79169</v>
+        <v>2.79121</v>
       </c>
       <c r="B95" t="n">
-        <v>9.6965</v>
+        <v>7.17953</v>
       </c>
       <c r="C95" t="n">
-        <v>9696.5</v>
+        <v>7179.53</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.82187</v>
+        <v>2.82146</v>
       </c>
       <c r="B96" t="n">
-        <v>9.61107</v>
+        <v>7.11757</v>
       </c>
       <c r="C96" t="n">
-        <v>9611.07</v>
+        <v>7117.57</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.85227</v>
+        <v>2.85185</v>
       </c>
       <c r="B97" t="n">
-        <v>9.52131</v>
+        <v>7.0529</v>
       </c>
       <c r="C97" t="n">
-        <v>9521.309999999999</v>
+        <v>7052.9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.88214</v>
+        <v>2.88171</v>
       </c>
       <c r="B98" t="n">
-        <v>9.42976</v>
+        <v>6.98694</v>
       </c>
       <c r="C98" t="n">
-        <v>9429.76</v>
+        <v>6986.94</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.91124</v>
+        <v>2.91068</v>
       </c>
       <c r="B99" t="n">
-        <v>9.335799999999999</v>
+        <v>6.91969</v>
       </c>
       <c r="C99" t="n">
-        <v>9335.799999999999</v>
+        <v>6919.69</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.94216</v>
+        <v>2.9417</v>
       </c>
       <c r="B100" t="n">
-        <v>9.23297</v>
+        <v>6.84578</v>
       </c>
       <c r="C100" t="n">
-        <v>9232.969999999999</v>
+        <v>6845.78</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.97241</v>
+        <v>2.97196</v>
       </c>
       <c r="B101" t="n">
-        <v>9.129160000000001</v>
+        <v>6.771100000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>9129.16</v>
+        <v>6771.1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.00164</v>
+        <v>3.00136</v>
       </c>
       <c r="B102" t="n">
-        <v>9.024510000000001</v>
+        <v>6.69606</v>
       </c>
       <c r="C102" t="n">
-        <v>9024.51</v>
+        <v>6696.06</v>
       </c>
     </row>
   </sheetData>
